--- a/Networks/Parte2/Excel/Parte2-Network7.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network7.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2137129461144884</v>
+        <v>-0.9702141024943302</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6121757101057322</v>
+        <v>-0.4881301422590007</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.129084591258982</v>
+        <v>-0.1861873666424456</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3241798199564332</v>
+        <v>-0.9090792945492638</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.8254496385360889</v>
+        <v>0.8606357959804208</v>
       </c>
       <c r="C4" t="n">
-        <v>1.30703912551509</v>
+        <v>-0.6678617948341953</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.8962134742780618</v>
+        <v>-0.9843908645868247</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5036247565406651</v>
+        <v>-0.4004554809490697</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.861229277325639</v>
+        <v>0.5037057425529781</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3827639465307867</v>
+        <v>0.7293369576195338</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9056044079939989</v>
+        <v>-1.118079193513543</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7941465268391465</v>
+        <v>0.6311520462704328</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte2/Excel/Parte2-Network7.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network7.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.9702141024943302</v>
+        <v>0.3494694828779881</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.4881301422590007</v>
+        <v>-0.7815583031016935</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1861873666424456</v>
+        <v>-0.7728078242598293</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.9090792945492638</v>
+        <v>0.5587969675177827</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8606357959804208</v>
+        <v>-1.123941849698018</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6678617948341953</v>
+        <v>0.04183512305456807</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.9843908645868247</v>
+        <v>-0.6422312916215966</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.4004554809490697</v>
+        <v>-0.1278378689239725</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5037057425529781</v>
+        <v>-2.004016977517532</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7293369576195338</v>
+        <v>0.9008433375932008</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.118079193513543</v>
+        <v>0.6932072598580434</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6311520462704328</v>
+        <v>-0.5551909189675438</v>
       </c>
     </row>
   </sheetData>
